--- a/data/geocercas.xlsx
+++ b/data/geocercas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,55 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>G428193</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Geocercas activos</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>polygon</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>["7", "3", "5", "11", "6", "10", "9", "1", "2", "8", "4"]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>{"type": "Polygon", "coordinates": [[[-85.204468, 10.682201], [-83.435669, 10.547221], [-84.622192, 9.18887], [-85.204468, 10.682201]]]}</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Eddye</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2025-11-12 22:15:03</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
